--- a/data/drugbank/drugs_generic_to_drugbankID_2024-06-24.xlsx
+++ b/data/drugbank/drugs_generic_to_drugbankID_2024-06-24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5147dea5b81ac1f3/04. BNCL (Post Doc)/Collaborations/Vera Pancaldi collaboration/DNABarcode-DrugFingerprint/data/drugbank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="206" documentId="11_63DF00D02221E40ED070255B4209490B627770DD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4D57C3C-8D93-43B0-B519-A4F8DD4B089A}"/>
+  <xr:revisionPtr revIDLastSave="227" documentId="11_63DF00D02221E40ED070255B4209490B627770DD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1371B90B-0CBE-4968-9012-78CF26E5F473}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="240">
   <si>
     <t>Pathway</t>
   </si>
@@ -601,9 +601,6 @@
     <t>Don't add additional instructions in the generic name -&gt; set it apart in another column</t>
   </si>
   <si>
-    <t>Molecule exists, but can't find its cognate DrugBankID. Only avalaible on MedChemExpress.</t>
-  </si>
-  <si>
     <t xml:space="preserve">eFT-508 is an external alias to molecule Tomivosertib </t>
   </si>
   <si>
@@ -613,18 +610,9 @@
     <t>DB15219</t>
   </si>
   <si>
-    <t xml:space="preserve">erastin or ebastine? Same pathwy involved? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In line with previous compound, would it be relevant to test official Ebastine? </t>
-  </si>
-  <si>
     <t xml:space="preserve">The closest I could find is termed Gefitinib-based PROTAC 3 (note the 3!!). A mispelling? A new drug? Again on MedChemExpress. </t>
   </si>
   <si>
-    <t>Again, only avalaible on MedChemExpress.</t>
-  </si>
-  <si>
     <t>Infigratinib</t>
   </si>
   <si>
@@ -637,9 +625,6 @@
     <t>L755507</t>
   </si>
   <si>
-    <t>Again, only avalaible on MedChemExpress (and this time, no dash '-').</t>
-  </si>
-  <si>
     <t>I removed D-Levofloxacin, please confirm that you have the proper chirality, and that's it's pure enough!!</t>
   </si>
   <si>
@@ -652,9 +637,6 @@
     <t>LGK974 is the older alias!!</t>
   </si>
   <si>
-    <t>Close to LIMKi 3, itself close to BMS-5. BMS-5 us its official MedChemExpress ID!!</t>
-  </si>
-  <si>
     <t>Only avalaible on MedChemExpress. Also known as DP-4978</t>
   </si>
   <si>
@@ -664,18 +646,12 @@
     <t>Nutlin-3</t>
   </si>
   <si>
-    <t xml:space="preserve">On MedChemExpress, official name adds a "-". </t>
-  </si>
-  <si>
     <t xml:space="preserve">Is the absence of the C important? In the official generic name? </t>
   </si>
   <si>
     <t>Only avalaible on MedChemExpress</t>
   </si>
   <si>
-    <t>Is it the same as Acetylcysteine, this term being on DrugBankID. From MedChemExpress, "N-Acetyl-L-cysteine" and "NAC" could be considered as synonyms.</t>
-  </si>
-  <si>
     <t>Acetylcysteine</t>
   </si>
   <si>
@@ -692,6 +668,165 @@
   </si>
   <si>
     <t>Pluripotin  </t>
+  </si>
+  <si>
+    <t>Careful on the spelling, lack the "-"</t>
+  </si>
+  <si>
+    <t>sodium phenylbutyrate is the alias for Phenylbutyric acid</t>
+  </si>
+  <si>
+    <t>Phenylbutyric acid</t>
+  </si>
+  <si>
+    <t>DB06819</t>
+  </si>
+  <si>
+    <t>Butyric Acid</t>
+  </si>
+  <si>
+    <t>DB03568</t>
+  </si>
+  <si>
+    <t>Sodium butyrate is the older alias for Butyric Acid</t>
+  </si>
+  <si>
+    <t>AMG-510 is the alias only!!</t>
+  </si>
+  <si>
+    <t>Sotorasib</t>
+  </si>
+  <si>
+    <t>DB15569</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Only avalaible on MedChemExpress, known as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stattic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> only!!</t>
+    </r>
+  </si>
+  <si>
+    <t>Official MedChem ID is NVP-TAE 684. TAE 684 is only a synonym, shortened alias!!</t>
+  </si>
+  <si>
+    <t>Similar to Artenimol. Should we replace Thapsigargin by Artenimol? Or at least, mention it's the same MoA!!</t>
+  </si>
+  <si>
+    <t>U-0126</t>
+  </si>
+  <si>
+    <t>DB17060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it the same as U-0126, its official DrugBank ID? </t>
+  </si>
+  <si>
+    <t>DB00928</t>
+  </si>
+  <si>
+    <t>comments Luca (to be completed!!)</t>
+  </si>
+  <si>
+    <t>Only avalaible on MedChemExpress.</t>
+  </si>
+  <si>
+    <t>erastin or ebastine? Same pathwy involved!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In line with previous compound, would it be relevant to include officially FDA-approved Ebastine? </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Close to LIMKi 3, itself close to BMS-5. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BMS-5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is its official MedChemExpress ID!!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Is it the same as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Acetylcysteine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, this term being on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DrugBankID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. From MedChemExpress, "N-Acetyl-L-cysteine" and "NAC" could be considered as synonyms.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -729,52 +864,6 @@
       </rPr>
       <t>Please, set in different columns when using synonyms!!</t>
     </r>
-  </si>
-  <si>
-    <t>Careful on the spelling, lack the "-"</t>
-  </si>
-  <si>
-    <t>sodium phenylbutyrate is the alias for Phenylbutyric acid</t>
-  </si>
-  <si>
-    <t>Phenylbutyric acid</t>
-  </si>
-  <si>
-    <t>DB06819</t>
-  </si>
-  <si>
-    <t>Butyric Acid</t>
-  </si>
-  <si>
-    <t>DB03568</t>
-  </si>
-  <si>
-    <t>Sodium butyrate is the older alias for Butyric Acid</t>
-  </si>
-  <si>
-    <t>AMG-510 is the alias only!!</t>
-  </si>
-  <si>
-    <t>Sotorasib</t>
-  </si>
-  <si>
-    <t>DB15569</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Only avalaible on MedChemExpress, known as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Stattic</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -783,26 +872,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> only!!</t>
+      <t xml:space="preserve"> The drug has a generic name input on DrugBank, but no official DrugBank ID!!</t>
     </r>
-  </si>
-  <si>
-    <t>Official MedChem ID is NVP-TAE 684. TAE 684 is only a synonym, shortened alias!!</t>
-  </si>
-  <si>
-    <t>Similar to Artenimol. Should we replace Thapsigargin by Artenimol? Or at least, mention it's the same MoA!!</t>
-  </si>
-  <si>
-    <t>U-0126</t>
-  </si>
-  <si>
-    <t>DB17060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is it the same as U-0126, its official DrugBank ID? </t>
-  </si>
-  <si>
-    <t>DB00928</t>
   </si>
 </sst>
 </file>
@@ -876,7 +947,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -914,23 +988,20 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:F88" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F88" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:G88" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G88" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F88">
     <sortCondition ref="B1:B88"/>
   </sortState>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Pathway" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Compound_Luca" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Generic_Name" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="drugbankId" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="distance" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{69810E54-BA31-4D27-AC0F-689084888EA6}" name="comments Bastien" dataDxfId="0"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Pathway" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Compound_Luca" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Generic_Name" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="drugbankId" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="distance" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{69810E54-BA31-4D27-AC0F-689084888EA6}" name="comments Bastien" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{3BB6287A-97D6-4F86-9564-28ABDCF77122}" name="comments Luca (to be completed!!)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1215,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L79" sqref="L79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1229,10 +1300,11 @@
     <col min="4" max="4" width="13.54296875" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.90625" style="1"/>
     <col min="6" max="6" width="25.6328125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.90625" style="1"/>
+    <col min="7" max="7" width="24.08984375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1251,8 +1323,11 @@
       <c r="F1" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G1" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>60</v>
       </c>
@@ -1263,14 +1338,14 @@
         <v>188</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -1290,7 +1365,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>170</v>
       </c>
@@ -1307,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>82</v>
       </c>
@@ -1327,7 +1402,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>135</v>
       </c>
@@ -1347,7 +1422,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>94</v>
       </c>
@@ -1367,7 +1442,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1375,10 +1450,10 @@
         <v>173</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>90</v>
       </c>
@@ -1395,7 +1470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1412,7 +1487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>135</v>
       </c>
@@ -1426,7 +1501,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -1443,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>147</v>
       </c>
@@ -1454,10 +1529,10 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -1468,10 +1543,10 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -1488,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>107</v>
       </c>
@@ -1615,13 +1690,13 @@
         <v>108</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="F23" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -1641,7 +1716,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="58" x14ac:dyDescent="0.35">
@@ -1655,7 +1730,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -1683,7 +1758,7 @@
         <v>20</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -1720,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -1731,13 +1806,13 @@
         <v>36</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -1757,10 +1832,10 @@
         <v>2</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>161</v>
       </c>
@@ -1768,7 +1843,7 @@
         <v>162</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>89</v>
@@ -1777,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -1814,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -1825,25 +1900,25 @@
         <v>132</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>210</v>
+      <c r="F36" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
@@ -1854,7 +1929,7 @@
         <v>24</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -1908,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>90</v>
       </c>
@@ -1916,10 +1991,10 @@
         <v>93</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -1939,7 +2014,7 @@
         <v>2</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1953,7 +2028,7 @@
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="87" x14ac:dyDescent="0.35">
@@ -1964,14 +2039,14 @@
         <v>138</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E44" s="3"/>
-      <c r="F44" s="3" t="s">
-        <v>217</v>
+      <c r="F44" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -2033,10 +2108,10 @@
         <v>140</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -2073,7 +2148,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -2161,20 +2236,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
@@ -2228,7 +2303,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
@@ -2276,7 +2351,7 @@
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
@@ -2307,10 +2382,10 @@
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>141</v>
       </c>
@@ -2321,10 +2396,10 @@
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>60</v>
       </c>
@@ -2332,17 +2407,17 @@
         <v>65</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>60</v>
       </c>
@@ -2350,17 +2425,17 @@
         <v>64</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>5</v>
       </c>
@@ -2377,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>21</v>
       </c>
@@ -2385,16 +2460,16 @@
         <v>22</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>94</v>
       </c>
@@ -2405,10 +2480,10 @@
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>82</v>
       </c>
@@ -2419,10 +2494,10 @@
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>133</v>
       </c>
@@ -2433,10 +2508,10 @@
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>5</v>
       </c>
@@ -2453,18 +2528,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
+    <row r="74" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G74" s="3"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>60</v>
       </c>
@@ -2481,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>178</v>
       </c>
@@ -2498,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>143</v>
       </c>
@@ -2509,10 +2588,10 @@
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>123</v>
       </c>
@@ -2523,10 +2602,10 @@
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>21</v>
       </c>
@@ -2543,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>60</v>
       </c>
@@ -2602,14 +2681,14 @@
         <v>32</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
@@ -2657,7 +2736,7 @@
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -2671,7 +2750,7 @@
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
@@ -2693,9 +2772,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>